--- a/2016昆山实践操作/导入/添加名单.xlsx
+++ b/2016昆山实践操作/导入/添加名单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>参赛队</t>
   </si>
@@ -30,24 +30,52 @@
   <si>
     <t>教练</t>
   </si>
+  <si>
+    <t>昆山市花桥中心小学校</t>
+  </si>
+  <si>
+    <t>“缤纷童年”场景规划制作团体赛</t>
+  </si>
+  <si>
+    <t>小学</t>
+  </si>
+  <si>
+    <t>昆山市周市中学</t>
+  </si>
+  <si>
+    <t>中学</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -55,6 +83,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -62,61 +98,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -130,6 +114,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -138,6 +144,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -146,16 +188,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -164,36 +214,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -214,31 +234,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,19 +336,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,7 +360,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,103 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,6 +419,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -413,6 +442,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -432,55 +485,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,6 +508,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -507,10 +527,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -519,139 +539,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1040,13 +1063,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
@@ -1069,6 +1092,28 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
